--- a/物料清单汇总/所有物料2015.3.9下午.xlsx
+++ b/物料清单汇总/所有物料2015.3.9下午.xlsx
@@ -781,10 +781,6 @@
   </si>
   <si>
     <t>Footprint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1612,6 +1608,10 @@
   <si>
     <t>ISO7641</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2803,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CZ116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2836,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>254</v>
+        <v>404</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -2951,7 +2951,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -3038,7 +3038,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>8</v>
@@ -3056,7 +3056,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>8</v>
@@ -3166,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>6</v>
@@ -3184,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>6</v>
@@ -3202,7 +3202,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>6</v>
@@ -3238,7 +3238,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="15" spans="1:104" ht="16.5" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>107</v>
@@ -3280,10 +3280,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F15" s="24"/>
     </row>
@@ -3301,7 +3301,7 @@
         <v>204</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="5"/>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="17" spans="1:104" ht="16.5" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>151</v>
@@ -3417,13 +3417,13 @@
         <v>152</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:104" ht="16.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>40</v>
@@ -3447,7 +3447,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>61</v>
@@ -3462,7 +3462,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>63</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="21" spans="1:104" ht="16.5" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>65</v>
@@ -3567,10 +3567,10 @@
     </row>
     <row r="26" spans="1:104" ht="16.5" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>66</v>
@@ -3585,16 +3585,16 @@
     </row>
     <row r="27" spans="1:104" ht="16.5" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>76</v>
@@ -3722,13 +3722,13 @@
         <v>39</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>262</v>
-      </c>
       <c r="D29" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>62</v>
@@ -3737,37 +3737,37 @@
     </row>
     <row r="30" spans="1:104" ht="16.5" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>264</v>
-      </c>
       <c r="E30" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:104" ht="16.5" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>266</v>
-      </c>
       <c r="E31" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F31" s="24"/>
     </row>
@@ -3776,16 +3776,16 @@
         <v>39</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F32" s="24"/>
     </row>
@@ -3794,7 +3794,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>168</v>
@@ -3803,7 +3803,7 @@
         <v>169</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F33" s="24"/>
     </row>
@@ -3821,7 +3821,7 @@
         <v>171</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F34" s="24"/>
     </row>
@@ -3830,16 +3830,16 @@
         <v>39</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>172</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F35" s="24"/>
     </row>
@@ -3848,34 +3848,34 @@
         <v>39</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>173</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F36" s="24"/>
     </row>
     <row r="37" spans="1:104" ht="16.5" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>174</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F37" s="24"/>
     </row>
@@ -3884,16 +3884,16 @@
         <v>39</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>175</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F38" s="24"/>
     </row>
@@ -3902,16 +3902,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>176</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F39" s="24"/>
     </row>
@@ -3920,16 +3920,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>177</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F40" s="24"/>
     </row>
@@ -3938,16 +3938,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F41" s="24"/>
     </row>
@@ -3956,16 +3956,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>279</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>179</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F42" s="24"/>
     </row>
@@ -3974,22 +3974,22 @@
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F43" s="24"/>
     </row>
     <row r="44" spans="1:104" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>77</v>
@@ -4105,19 +4105,19 @@
     </row>
     <row r="45" spans="1:104" ht="16.5" customHeight="1">
       <c r="A45" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>301</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>181</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F45" s="24"/>
     </row>
@@ -4133,7 +4133,7 @@
         <v>183</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F46" s="24"/>
     </row>
@@ -4142,16 +4142,16 @@
         <v>140</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F47" s="24"/>
     </row>
@@ -4163,13 +4163,13 @@
         <v>16</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F48" s="24"/>
     </row>
@@ -4178,7 +4178,7 @@
         <v>119</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>118</v>
@@ -4187,16 +4187,16 @@
         <v>120</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F49" s="24"/>
     </row>
     <row r="50" spans="1:104" ht="16.5" customHeight="1">
       <c r="A50" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>284</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>6</v>
@@ -4205,7 +4205,7 @@
         <v>121</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F50" s="24"/>
     </row>
@@ -4223,7 +4223,7 @@
         <v>21</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F51" s="24"/>
     </row>
@@ -4241,7 +4241,7 @@
         <v>124</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F52" s="24"/>
     </row>
@@ -4259,7 +4259,7 @@
         <v>207</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F53" s="24"/>
     </row>
@@ -4268,7 +4268,7 @@
         <v>208</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>209</v>
@@ -4277,16 +4277,16 @@
         <v>210</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:104" ht="16.5" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>97</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="56" spans="1:104" ht="16.5" customHeight="1">
       <c r="A56" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>101</v>
@@ -4322,7 +4322,7 @@
         <v>104</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>100</v>
@@ -4340,7 +4340,7 @@
         <v>44</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>45</v>
@@ -4358,16 +4358,16 @@
         <v>44</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F59" s="24"/>
     </row>
@@ -4415,13 +4415,13 @@
         <v>126</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F62" s="24"/>
     </row>
@@ -4454,10 +4454,10 @@
         <v>130</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F64" s="24"/>
       <c r="G64" s="5"/>
@@ -4564,7 +4564,7 @@
         <v>131</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>132</v>
@@ -4573,7 +4573,7 @@
         <v>133</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F65" s="24"/>
     </row>
@@ -4591,7 +4591,7 @@
         <v>136</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F66" s="24"/>
     </row>
@@ -4609,7 +4609,7 @@
         <v>138</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F67" s="24"/>
     </row>
@@ -4618,16 +4618,16 @@
         <v>125</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>290</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>139</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F68" s="24"/>
     </row>
@@ -4663,7 +4663,7 @@
         <v>145</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F70" s="24"/>
       <c r="G70" s="5"/>
@@ -4779,34 +4779,34 @@
         <v>149</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F71" s="24"/>
     </row>
     <row r="72" spans="1:104" ht="33.75">
       <c r="A72" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C72" s="25" t="s">
         <v>150</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:104" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A73" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>41</v>
@@ -4815,7 +4815,7 @@
         <v>153</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F73" s="24"/>
       <c r="G73" s="5"/>
@@ -4931,7 +4931,7 @@
         <v>215</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F74" s="24"/>
     </row>
@@ -4949,7 +4949,7 @@
         <v>156</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F75" s="24"/>
       <c r="G75" s="5"/>
@@ -5065,13 +5065,13 @@
         <v>58</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F76" s="24"/>
     </row>
     <row r="77" spans="1:104" ht="16.5" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>22</v>
@@ -5241,10 +5241,10 @@
     </row>
     <row r="81" spans="1:104" ht="16.5" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>223</v>
@@ -5253,7 +5253,7 @@
         <v>224</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F81" s="24"/>
     </row>
@@ -5289,7 +5289,7 @@
         <v>164</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F83" s="24"/>
       <c r="G83" s="5"/>
@@ -5405,7 +5405,7 @@
         <v>231</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F84" s="24"/>
     </row>
@@ -5441,7 +5441,7 @@
         <v>161</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F86" s="24"/>
     </row>
@@ -5718,7 +5718,7 @@
         <v>165</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>166</v>
@@ -5727,7 +5727,7 @@
         <v>167</v>
       </c>
       <c r="E91" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F91" s="24"/>
       <c r="G91" s="5"/>
@@ -5843,7 +5843,7 @@
         <v>96</v>
       </c>
       <c r="E92" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F92" s="24"/>
     </row>
@@ -5870,10 +5870,10 @@
         <v>88</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>89</v>
@@ -5897,7 +5897,7 @@
         <v>93</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F95" s="24"/>
     </row>
@@ -5906,16 +5906,16 @@
         <v>142</v>
       </c>
       <c r="B96" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>294</v>
-      </c>
       <c r="E96" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F96" s="24"/>
       <c r="G96" s="5"/>
@@ -6031,7 +6031,7 @@
         <v>186</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F97" s="24"/>
     </row>
@@ -6040,16 +6040,16 @@
         <v>187</v>
       </c>
       <c r="B98" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>303</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F98" s="24"/>
       <c r="G98" s="5"/>
@@ -6165,7 +6165,7 @@
         <v>190</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F99" s="24"/>
       <c r="G99" s="5"/>
@@ -6281,7 +6281,7 @@
         <v>192</v>
       </c>
       <c r="E100" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F100" s="24"/>
     </row>
@@ -6299,25 +6299,25 @@
         <v>194</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F101" s="24"/>
     </row>
     <row r="102" spans="1:104" ht="16.5" customHeight="1">
       <c r="A102" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>305</v>
-      </c>
       <c r="C102" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>195</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F102" s="24"/>
     </row>
@@ -6326,10 +6326,10 @@
         <v>196</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>197</v>
@@ -6342,7 +6342,7 @@
     <row r="104" spans="1:104" ht="16.5" customHeight="1">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>198</v>
@@ -6351,7 +6351,7 @@
         <v>199</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F104" s="24"/>
     </row>
@@ -6369,7 +6369,7 @@
         <v>200</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F105" s="24"/>
       <c r="G105" s="5"/>
@@ -6476,7 +6476,7 @@
         <v>165</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>201</v>
@@ -6485,7 +6485,7 @@
         <v>202</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F106" s="24"/>
       <c r="G106" s="5"/>
@@ -6748,16 +6748,16 @@
     </row>
     <row r="111" spans="1:104">
       <c r="B111" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C111" s="23" t="s">
         <v>387</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>388</v>
       </c>
       <c r="D111" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F111" s="22"/>
     </row>
@@ -6766,7 +6766,7 @@
         <v>39</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D112" s="23" t="s">
         <v>66</v>
@@ -6781,7 +6781,7 @@
         <v>39</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D113" s="23" t="s">
         <v>66</v>
@@ -6793,25 +6793,25 @@
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C114" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="C114" s="23" t="s">
+      <c r="D114" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="D114" s="23" t="s">
+      <c r="E114" s="34" t="s">
         <v>394</v>
-      </c>
-      <c r="E114" s="34" t="s">
-        <v>395</v>
       </c>
       <c r="F114" s="22"/>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C115" s="23" t="s">
         <v>396</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>397</v>
       </c>
       <c r="D115" s="23"/>
       <c r="E115" s="34"/>
@@ -6819,19 +6819,19 @@
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="C116" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="C116" s="27" t="s">
+      <c r="D116" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="D116" s="27" t="s">
+      <c r="E116" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="E116" s="27" t="s">
+      <c r="F116" s="27" t="s">
         <v>401</v>
-      </c>
-      <c r="F116" s="27" t="s">
-        <v>402</v>
       </c>
     </row>
   </sheetData>
